--- a/Ueberstunden.xlsx
+++ b/Ueberstunden.xlsx
@@ -17,13 +17,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00993366"/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +55,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,29 +436,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>KW</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Arbeitsstunden</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Ueberstunden</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Gesamte Ueberstunden</t>
         </is>
@@ -459,8 +474,8 @@
       <c r="C2" t="n">
         <v>-0.75</v>
       </c>
-      <c r="D2" t="n">
-        <v>-109.85</v>
+      <c r="D2" s="2" t="n">
+        <v>-50.35</v>
       </c>
     </row>
     <row r="3">
@@ -540,97 +555,9 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>35</v>
-      </c>
-      <c r="B10" t="n">
-        <v>30</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>36</v>
-      </c>
-      <c r="B11" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-6.25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>37</v>
-      </c>
-      <c r="B12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-14.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>38</v>
-      </c>
-      <c r="B13" t="n">
-        <v>23</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>41</v>
-      </c>
-      <c r="B14" t="n">
-        <v>30</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>42</v>
-      </c>
-      <c r="B15" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-6.25</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>43</v>
-      </c>
-      <c r="B16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-14.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>44</v>
-      </c>
-      <c r="B17" t="n">
-        <v>23</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-8</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:D17"/>
+    <mergeCell ref="D2:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ueberstunden.xlsx
+++ b/Ueberstunden.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
         <v>-0.75</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-50.35</v>
+        <v>-109.85</v>
       </c>
     </row>
     <row r="3">
@@ -555,9 +555,97 @@
         <v>-8</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-6.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42</v>
+      </c>
+      <c r="B13" t="n">
+        <v>23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-6.25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D2:D17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ueberstunden.xlsx
+++ b/Ueberstunden.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,98 +466,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>30.25</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.75</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-109.85</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="n">
-        <v>26.75</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>25.9</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>20.5</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>-10.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" t="n">
-        <v>24.75</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" t="n">
-        <v>16.5</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>-14.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>-8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
         <v>30</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
         <v>24.75</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" t="n">
         <v>16.5</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
         <v>23</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B14" t="n">
         <v>30</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B15" t="n">
         <v>24.75</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B16" t="n">
         <v>16.5</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B17" t="n">
         <v>23</v>
@@ -643,9 +643,53 @@
         <v>-8</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-6.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>40</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>40</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:D17"/>
+    <mergeCell ref="D2:D21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
